--- a/biology/Zoologie/Holometabola/Holometabola.xlsx
+++ b/biology/Zoologie/Holometabola/Holometabola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Holométaboles (Holometabola), ou parfois les Endoptérygotes (Endopterygota), sont un super-ordre d'insectes de la sous-classe des Ptérygotes, qui se caractérisent par leur développement, appelé « holométabolisme » ou « métamorphose complète ».
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le développement des insectes holométaboles se caractérise par ce que l'on appelle une métamorphose complète, qui passe par quatre stades :
 l'œuf (état immobile) ;
@@ -547,10 +561,12 @@
           <t>Influence de l'environnement larvaire sur le développement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beaucoup d'holométaboles adultes, en raison de leur cycle de vie complexe, occupent une niche écologique très différente de celle de leurs larves (moment de formation du microbiote[1]), c'est le cas par exemple des moustiques à larves aquatiques, dont les adultes femelles iront faire un repas de sang chez divers animaux ou dans les habitations humaines.
-Certains holométaboles se reproduisant en grand nombre et rapidement (moustiques par exemple) évoluent néanmoins rapidement pour s'adapter à leur environnement[2] et il existe un lien important et fonctionnel entre l'écologie des larves, les microbes et conditions environnementales auxquelles elles sont exposées[3],[4] et la variation phénotypique d'insectes holometaboliques vecteurs de maladies zoonotiques[5]. Certains moustiques, ou les puces se sont ainsi rapidement adaptés à plusieurs familles d'insecticides. Les conditions environnementales rencontrées par les larves lors de leur développement vont affecter les « traits » adultes[5]. On a aussi récemment (2017) montré dans le cas du moustique Aedes aegypti que les communautés bactériennes propres aux sites de développement larvaire influent sur la capacité des insectes vecteurs à transmettre des agents pathogènes humains. Des larves expérimentalement exposées à différents isolats bactériens indigènes lors de leur développement donneront des adultes présentant des différences significatives de taux de pupaison et de taille corporelle (mais non de durée de vie, qui n'est pas affectée)[5]. L'exposition de larves de ce moustique à un isolat d'Enterobacteriaceae a entraîné chez les moustiques adultes une diminution de l'activité antibactérienne de l'hémolymphe et un titre réduit de propagation du virus de la dengue[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beaucoup d'holométaboles adultes, en raison de leur cycle de vie complexe, occupent une niche écologique très différente de celle de leurs larves (moment de formation du microbiote), c'est le cas par exemple des moustiques à larves aquatiques, dont les adultes femelles iront faire un repas de sang chez divers animaux ou dans les habitations humaines.
+Certains holométaboles se reproduisant en grand nombre et rapidement (moustiques par exemple) évoluent néanmoins rapidement pour s'adapter à leur environnement et il existe un lien important et fonctionnel entre l'écologie des larves, les microbes et conditions environnementales auxquelles elles sont exposées, et la variation phénotypique d'insectes holometaboliques vecteurs de maladies zoonotiques. Certains moustiques, ou les puces se sont ainsi rapidement adaptés à plusieurs familles d'insecticides. Les conditions environnementales rencontrées par les larves lors de leur développement vont affecter les « traits » adultes. On a aussi récemment (2017) montré dans le cas du moustique Aedes aegypti que les communautés bactériennes propres aux sites de développement larvaire influent sur la capacité des insectes vecteurs à transmettre des agents pathogènes humains. Des larves expérimentalement exposées à différents isolats bactériens indigènes lors de leur développement donneront des adultes présentant des différences significatives de taux de pupaison et de taille corporelle (mais non de durée de vie, qui n'est pas affectée). L'exposition de larves de ce moustique à un isolat d'Enterobacteriaceae a entraîné chez les moustiques adultes une diminution de l'activité antibactérienne de l'hémolymphe et un titre réduit de propagation du virus de la dengue.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des ordres actuels d'insectes holométaboles, d'après Peters et al., 2014[6] et Misof et al., 2014[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des ordres actuels d'insectes holométaboles, d'après Peters et al., 2014 et Misof et al., 2014 :
 </t>
         </is>
       </c>
